--- a/Excel/镇魂街/national_event国战纪事.xlsx
+++ b/Excel/镇魂街/national_event国战纪事.xlsx
@@ -1550,7 +1550,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1814,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="4">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3">
         <v>3</v>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>

--- a/Excel/镇魂街/national_event国战纪事.xlsx
+++ b/Excel/镇魂街/national_event国战纪事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>sheet名</t>
   </si>
@@ -614,7 +614,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>全服获得钻石%s</t>
+    <t>全服获得灵玉%s</t>
   </si>
   <si>
     <t>开拓者</t>
@@ -671,7 +671,7 @@
     <t>【目标】：结束时联盟占领%s个卫都</t>
   </si>
   <si>
-    <t>联盟成员获得钻石%s</t>
+    <t>联盟成员获得灵玉%s</t>
   </si>
   <si>
     <t>乱世争锋</t>
@@ -686,7 +686,7 @@
     <t>1600,1000,1000,600,600,300,300,300,300,300</t>
   </si>
   <si>
-    <t>第一名获得钻石%s</t>
+    <t>第一名获得灵玉%s</t>
   </si>
   <si>
     <t>合纵连横</t>
@@ -739,13 +739,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,14 +774,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +803,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,6 +878,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -817,54 +887,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,6 +917,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -885,34 +931,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,36 +947,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
@@ -978,7 +971,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,97 +992,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,109 +1178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,13 +1219,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,32 +1282,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,30 +1317,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1346,184 +1333,184 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1541,7 +1528,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1899,71 +1885,71 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="b">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="b">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,7 +1968,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2095,10 +2081,10 @@
       <c r="M2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="247.5" customHeight="1" spans="1:24">
@@ -2456,7 +2442,7 @@
       <c r="K11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>71</v>
       </c>
       <c r="M11" s="2" t="s">
